--- a/biology/Biochimie/Philippe_Gros/Philippe_Gros.xlsx
+++ b/biology/Biochimie/Philippe_Gros/Philippe_Gros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Gros est un biochimiste et professeur québécois né le 7 octobre 1956 à Cavaillon en France[1]. Il est arrivé à Montréal en 1967. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Gros est un biochimiste et professeur québécois né le 7 octobre 1956 à Cavaillon en France. Il est arrivé à Montréal en 1967. 
 Il détient un doctorat de l'université McGill. Il est professeur au département de biochimie de l'université McGill depuis 1993. 
 Il a découvert en 1983 le gène MDR, importante découverte dans le traitement du cancer. Il a aussi découvert en 1994 le gène Nramp dont l'action est au cœur de la résistance naturelle aux infections comme la tuberculose, la lèpre et la typhoïde. Son équipe a aussi découvert le gène Pax3 qui régit le développement harmonieux de l'embryon.
 </t>
@@ -513,7 +525,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1992 - Prix E.W.R. Steacie
 1995 - Prix Michael-Smith du CRSNG
